--- a/Deepseek/CCYreplacement.xlsx
+++ b/Deepseek/CCYreplacement.xlsx
@@ -2,27 +2,39 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Table2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -35,7 +47,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -43,15 +55,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -414,14 +461,697 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Reportee</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Reportee</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Reportee</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Todd</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Todd</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Todd</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Todd</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Kristin</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Kristin</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Todd</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Kristin</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Kristin</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Kristin</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Todd</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Kristin</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Todd</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Kristin</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>AAAA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Anthony</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anthony</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>BBBBB</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Anthony</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Megan</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Megan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Richard</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Megan</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Richard</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Brittany</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Richard</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Patrick</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Patrick</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Patrick</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Corey</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Corey</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Corey</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Anthony</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>William</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>William</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Anthony</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>William</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Henry</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Henry</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Megan</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Henry</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Megan</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Kelly</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Kelly</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Megan</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Kelly</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Eric</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Eric</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Eric</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Dylan</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Dylan</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Dylan</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Shane</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Shane</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Shane</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Elizabeth</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Elizabeth</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Elizabeth</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Matthew</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Matthew</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Matthew</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Randy</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Randy</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Randy</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Kari</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Kari</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Henry</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Kari</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Henry</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Henry</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -432,14 +1162,794 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Reportee</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Reportee</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Reportee</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Val</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Todd</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Todd</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Todd</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Todd</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Kristin</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Kristin</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Todd</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Kristin</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Richard</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Richard</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ASDF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Richard</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Todd</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ASAS</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Kristin</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Anthony</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anthony</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Richard</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Anthony</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Megan</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Megan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Richard</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Megan</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Richard</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Richard</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Patrick</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Patrick</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Patrick</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Corey</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Corey</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Corey</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Anthony</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>William</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>William</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Anthony</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>William</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Henry</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Henry</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Megan</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Henry</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Megan</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Kelly</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Kelly</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Megan</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Kelly</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Eric</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Eric</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Eric</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Dylan</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Dylan</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Dylan</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Shane</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Shane</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Shane</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Elizabeth</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Elizabeth</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Elizabeth</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Matthew</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Matthew</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Matthew</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Randy</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Randy</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Randy</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Kari</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Kari</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Henry</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Kari</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Henry</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Henry</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>